--- a/data/FINAL RESULT - UNPHOTOGRAPHED BY STATE_TERRITORY.xlsx
+++ b/data/FINAL RESULT - UNPHOTOGRAPHED BY STATE_TERRITORY.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\thoma\Documents\GitHub\Australian-plant-photos\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D909687-9485-469D-8805-3DEFA5792C88}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86E7D943-DA02-4A7C-8EE4-39BD388732BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{1D693BA0-6E93-4BC9-9600-95AA5D82E393}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="5" xr2:uid="{1D693BA0-6E93-4BC9-9600-95AA5D82E393}"/>
   </bookViews>
   <sheets>
     <sheet name="NT" sheetId="1" r:id="rId1"/>
@@ -52,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14251" uniqueCount="7593">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14248" uniqueCount="7591">
   <si>
     <t>species</t>
   </si>
@@ -21784,12 +21784,6 @@
   </si>
   <si>
     <t>Myriophyllum amphibium</t>
-  </si>
-  <si>
-    <t>Hakea aenigma W.R.Barker &amp; Haegi</t>
-  </si>
-  <si>
-    <t>Hakea aenigma</t>
   </si>
   <si>
     <t>Ranunculus hamatosetosus H.Eichler</t>
@@ -23184,7 +23178,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{812373EF-0CAD-4168-9136-5DF84C475D87}">
   <dimension ref="A1:C754"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
@@ -31512,10 +31506,10 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>7494</v>
+        <v>7492</v>
       </c>
       <c r="B2" t="s">
-        <v>7495</v>
+        <v>7493</v>
       </c>
       <c r="C2" t="s">
         <v>645</v>
@@ -31523,10 +31517,10 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>7486</v>
+        <v>7484</v>
       </c>
       <c r="B3" t="s">
-        <v>7487</v>
+        <v>7485</v>
       </c>
       <c r="C3" t="s">
         <v>47</v>
@@ -31534,10 +31528,10 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>7488</v>
+        <v>7486</v>
       </c>
       <c r="B4" t="s">
-        <v>7489</v>
+        <v>7487</v>
       </c>
       <c r="C4" t="s">
         <v>47</v>
@@ -31545,10 +31539,10 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>7490</v>
+        <v>7488</v>
       </c>
       <c r="B5" t="s">
-        <v>7491</v>
+        <v>7489</v>
       </c>
       <c r="C5" t="s">
         <v>47</v>
@@ -31556,10 +31550,10 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>7514</v>
+        <v>7512</v>
       </c>
       <c r="B6" t="s">
-        <v>7515</v>
+        <v>7513</v>
       </c>
       <c r="C6" t="s">
         <v>2272</v>
@@ -31578,21 +31572,21 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
+        <v>7514</v>
+      </c>
+      <c r="B8" t="s">
+        <v>7515</v>
+      </c>
+      <c r="C8" t="s">
         <v>7516</v>
-      </c>
-      <c r="B8" t="s">
-        <v>7517</v>
-      </c>
-      <c r="C8" t="s">
-        <v>7518</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>7512</v>
+        <v>7510</v>
       </c>
       <c r="B9" t="s">
-        <v>7513</v>
+        <v>7511</v>
       </c>
       <c r="C9" t="s">
         <v>2241</v>
@@ -31600,10 +31594,10 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>7498</v>
+        <v>7496</v>
       </c>
       <c r="B10" t="s">
-        <v>7499</v>
+        <v>7497</v>
       </c>
       <c r="C10" t="s">
         <v>855</v>
@@ -31611,10 +31605,10 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>7500</v>
+        <v>7498</v>
       </c>
       <c r="B11" t="s">
-        <v>7501</v>
+        <v>7499</v>
       </c>
       <c r="C11" t="s">
         <v>855</v>
@@ -31622,10 +31616,10 @@
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>7502</v>
+        <v>7500</v>
       </c>
       <c r="B12" t="s">
-        <v>7503</v>
+        <v>7501</v>
       </c>
       <c r="C12" t="s">
         <v>855</v>
@@ -31633,10 +31627,10 @@
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>7504</v>
+        <v>7502</v>
       </c>
       <c r="B13" t="s">
-        <v>7505</v>
+        <v>7503</v>
       </c>
       <c r="C13" t="s">
         <v>855</v>
@@ -31644,10 +31638,10 @@
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>7506</v>
+        <v>7504</v>
       </c>
       <c r="B14" t="s">
-        <v>7507</v>
+        <v>7505</v>
       </c>
       <c r="C14" t="s">
         <v>855</v>
@@ -31666,10 +31660,10 @@
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>7496</v>
+        <v>7494</v>
       </c>
       <c r="B16" t="s">
-        <v>7497</v>
+        <v>7495</v>
       </c>
       <c r="C16" t="s">
         <v>738</v>
@@ -31677,10 +31671,10 @@
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>7519</v>
+        <v>7517</v>
       </c>
       <c r="B17" t="s">
-        <v>7520</v>
+        <v>7518</v>
       </c>
       <c r="C17" t="s">
         <v>2314</v>
@@ -31688,10 +31682,10 @@
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>7521</v>
+        <v>7519</v>
       </c>
       <c r="B18" t="s">
-        <v>7522</v>
+        <v>7520</v>
       </c>
       <c r="C18" t="s">
         <v>2314</v>
@@ -31699,10 +31693,10 @@
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>7510</v>
+        <v>7508</v>
       </c>
       <c r="B19" t="s">
-        <v>7511</v>
+        <v>7509</v>
       </c>
       <c r="C19" t="s">
         <v>2157</v>
@@ -31710,10 +31704,10 @@
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>7492</v>
+        <v>7490</v>
       </c>
       <c r="B20" t="s">
-        <v>7493</v>
+        <v>7491</v>
       </c>
       <c r="C20" t="s">
         <v>269</v>
@@ -31721,10 +31715,10 @@
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>7508</v>
+        <v>7506</v>
       </c>
       <c r="B21" t="s">
-        <v>7509</v>
+        <v>7507</v>
       </c>
       <c r="C21" t="s">
         <v>2143</v>
@@ -31758,10 +31752,10 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>7535</v>
+        <v>7533</v>
       </c>
       <c r="B2" t="s">
-        <v>7536</v>
+        <v>7534</v>
       </c>
       <c r="C2" t="s">
         <v>285</v>
@@ -31769,10 +31763,10 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>7523</v>
+        <v>7521</v>
       </c>
       <c r="B3" t="s">
-        <v>7524</v>
+        <v>7522</v>
       </c>
       <c r="C3" t="s">
         <v>42</v>
@@ -31780,10 +31774,10 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>7573</v>
+        <v>7571</v>
       </c>
       <c r="B4" t="s">
-        <v>7574</v>
+        <v>7572</v>
       </c>
       <c r="C4" t="s">
         <v>2269</v>
@@ -31791,10 +31785,10 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>7525</v>
+        <v>7523</v>
       </c>
       <c r="B5" t="s">
-        <v>7526</v>
+        <v>7524</v>
       </c>
       <c r="C5" t="s">
         <v>47</v>
@@ -31802,10 +31796,10 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>7527</v>
+        <v>7525</v>
       </c>
       <c r="B6" t="s">
-        <v>7528</v>
+        <v>7526</v>
       </c>
       <c r="C6" t="s">
         <v>47</v>
@@ -31813,10 +31807,10 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>7529</v>
+        <v>7527</v>
       </c>
       <c r="B7" t="s">
-        <v>7530</v>
+        <v>7528</v>
       </c>
       <c r="C7" t="s">
         <v>47</v>
@@ -31824,10 +31818,10 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>7575</v>
+        <v>7573</v>
       </c>
       <c r="B8" t="s">
-        <v>7576</v>
+        <v>7574</v>
       </c>
       <c r="C8" t="s">
         <v>2272</v>
@@ -31835,10 +31829,10 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>7559</v>
+        <v>7557</v>
       </c>
       <c r="B9" t="s">
-        <v>7560</v>
+        <v>7558</v>
       </c>
       <c r="C9" t="s">
         <v>1651</v>
@@ -31846,10 +31840,10 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>7561</v>
+        <v>7559</v>
       </c>
       <c r="B10" t="s">
-        <v>7562</v>
+        <v>7560</v>
       </c>
       <c r="C10" t="s">
         <v>1651</v>
@@ -31857,10 +31851,10 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>7549</v>
+        <v>7547</v>
       </c>
       <c r="B11" t="s">
-        <v>7550</v>
+        <v>7548</v>
       </c>
       <c r="C11" t="s">
         <v>995</v>
@@ -31868,10 +31862,10 @@
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>7551</v>
+        <v>7549</v>
       </c>
       <c r="B12" t="s">
-        <v>7552</v>
+        <v>7550</v>
       </c>
       <c r="C12" t="s">
         <v>995</v>
@@ -31879,10 +31873,10 @@
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>7577</v>
+        <v>7575</v>
       </c>
       <c r="B13" t="s">
-        <v>7578</v>
+        <v>7576</v>
       </c>
       <c r="C13" t="s">
         <v>2280</v>
@@ -31890,10 +31884,10 @@
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>7553</v>
+        <v>7551</v>
       </c>
       <c r="B14" t="s">
-        <v>7554</v>
+        <v>7552</v>
       </c>
       <c r="C14" t="s">
         <v>1251</v>
@@ -31901,10 +31895,10 @@
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>7537</v>
+        <v>7535</v>
       </c>
       <c r="B15" t="s">
-        <v>7538</v>
+        <v>7536</v>
       </c>
       <c r="C15" t="s">
         <v>310</v>
@@ -31912,10 +31906,10 @@
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>7539</v>
+        <v>7537</v>
       </c>
       <c r="B16" t="s">
-        <v>7540</v>
+        <v>7538</v>
       </c>
       <c r="C16" t="s">
         <v>310</v>
@@ -31923,21 +31917,21 @@
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
+        <v>7514</v>
+      </c>
+      <c r="B17" t="s">
+        <v>7515</v>
+      </c>
+      <c r="C17" t="s">
         <v>7516</v>
-      </c>
-      <c r="B17" t="s">
-        <v>7517</v>
-      </c>
-      <c r="C17" t="s">
-        <v>7518</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>7547</v>
+        <v>7545</v>
       </c>
       <c r="B18" t="s">
-        <v>7548</v>
+        <v>7546</v>
       </c>
       <c r="C18" t="s">
         <v>542</v>
@@ -31945,10 +31939,10 @@
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>7555</v>
+        <v>7553</v>
       </c>
       <c r="B19" t="s">
-        <v>7556</v>
+        <v>7554</v>
       </c>
       <c r="C19" t="s">
         <v>1258</v>
@@ -31956,10 +31950,10 @@
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>7557</v>
+        <v>7555</v>
       </c>
       <c r="B20" t="s">
-        <v>7558</v>
+        <v>7556</v>
       </c>
       <c r="C20" t="s">
         <v>1258</v>
@@ -31967,10 +31961,10 @@
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>7531</v>
+        <v>7529</v>
       </c>
       <c r="B21" t="s">
-        <v>7532</v>
+        <v>7530</v>
       </c>
       <c r="C21" t="s">
         <v>258</v>
@@ -31978,10 +31972,10 @@
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>7533</v>
+        <v>7531</v>
       </c>
       <c r="B22" t="s">
-        <v>7534</v>
+        <v>7532</v>
       </c>
       <c r="C22" t="s">
         <v>258</v>
@@ -31989,10 +31983,10 @@
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>7541</v>
+        <v>7539</v>
       </c>
       <c r="B23" t="s">
-        <v>7542</v>
+        <v>7540</v>
       </c>
       <c r="C23" t="s">
         <v>331</v>
@@ -32000,10 +31994,10 @@
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>7543</v>
+        <v>7541</v>
       </c>
       <c r="B24" t="s">
-        <v>7544</v>
+        <v>7542</v>
       </c>
       <c r="C24" t="s">
         <v>331</v>
@@ -32011,10 +32005,10 @@
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>7545</v>
+        <v>7543</v>
       </c>
       <c r="B25" t="s">
-        <v>7546</v>
+        <v>7544</v>
       </c>
       <c r="C25" t="s">
         <v>331</v>
@@ -32022,10 +32016,10 @@
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>7567</v>
+        <v>7565</v>
       </c>
       <c r="B26" t="s">
-        <v>7568</v>
+        <v>7566</v>
       </c>
       <c r="C26" t="s">
         <v>2157</v>
@@ -32033,10 +32027,10 @@
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>7563</v>
+        <v>7561</v>
       </c>
       <c r="B27" t="s">
-        <v>7564</v>
+        <v>7562</v>
       </c>
       <c r="C27" t="s">
         <v>1959</v>
@@ -32044,10 +32038,10 @@
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>7569</v>
+        <v>7567</v>
       </c>
       <c r="B28" t="s">
-        <v>7570</v>
+        <v>7568</v>
       </c>
       <c r="C28" t="s">
         <v>6519</v>
@@ -32055,10 +32049,10 @@
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>7571</v>
+        <v>7569</v>
       </c>
       <c r="B29" t="s">
-        <v>7572</v>
+        <v>7570</v>
       </c>
       <c r="C29" t="s">
         <v>6519</v>
@@ -32066,10 +32060,10 @@
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>7565</v>
+        <v>7563</v>
       </c>
       <c r="B30" t="s">
-        <v>7566</v>
+        <v>7564</v>
       </c>
       <c r="C30" t="s">
         <v>5769</v>
@@ -32100,10 +32094,10 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>7579</v>
+        <v>7577</v>
       </c>
       <c r="B2" t="s">
-        <v>7580</v>
+        <v>7578</v>
       </c>
     </row>
   </sheetData>
@@ -32134,10 +32128,10 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>7581</v>
+        <v>7579</v>
       </c>
       <c r="B2" t="s">
-        <v>7582</v>
+        <v>7580</v>
       </c>
       <c r="C2" t="s">
         <v>18</v>
@@ -32145,10 +32139,10 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>7583</v>
+        <v>7581</v>
       </c>
       <c r="B3" t="s">
-        <v>7584</v>
+        <v>7582</v>
       </c>
       <c r="C3" t="s">
         <v>666</v>
@@ -32156,10 +32150,10 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>7585</v>
+        <v>7583</v>
       </c>
       <c r="B4" t="s">
-        <v>7586</v>
+        <v>7584</v>
       </c>
       <c r="C4" t="s">
         <v>1258</v>
@@ -32193,10 +32187,10 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>7581</v>
+        <v>7579</v>
       </c>
       <c r="B2" t="s">
-        <v>7582</v>
+        <v>7580</v>
       </c>
       <c r="C2" t="s">
         <v>18</v>
@@ -32230,10 +32224,10 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>7587</v>
+        <v>7585</v>
       </c>
       <c r="B2" t="s">
-        <v>7588</v>
+        <v>7586</v>
       </c>
       <c r="C2" t="s">
         <v>285</v>
@@ -32263,10 +32257,10 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>7589</v>
+        <v>7587</v>
       </c>
       <c r="B5" t="s">
-        <v>7590</v>
+        <v>7588</v>
       </c>
       <c r="C5" t="s">
         <v>2475</v>
@@ -32274,10 +32268,10 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>7591</v>
+        <v>7589</v>
       </c>
       <c r="B6" t="s">
-        <v>7592</v>
+        <v>7590</v>
       </c>
       <c r="C6" t="s">
         <v>413</v>
@@ -69696,10 +69690,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0ED15FD9-C2AF-46F5-A032-2717DF200D8F}">
-  <dimension ref="A1:C316"/>
+  <dimension ref="A1:C315"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+    <sheetView tabSelected="1" topLeftCell="A249" workbookViewId="0">
+      <selection activeCell="H267" sqref="H267"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -70454,10 +70448,10 @@
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>7248</v>
+        <v>7246</v>
       </c>
       <c r="B69" t="s">
-        <v>7249</v>
+        <v>7247</v>
       </c>
       <c r="C69" t="s">
         <v>1651</v>
@@ -70476,10 +70470,10 @@
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>7250</v>
+        <v>7248</v>
       </c>
       <c r="B71" t="s">
-        <v>7251</v>
+        <v>7249</v>
       </c>
       <c r="C71" t="s">
         <v>1651</v>
@@ -70586,10 +70580,10 @@
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>7252</v>
+        <v>7250</v>
       </c>
       <c r="B81" t="s">
-        <v>7253</v>
+        <v>7251</v>
       </c>
       <c r="C81" t="s">
         <v>1651</v>
@@ -70652,10 +70646,10 @@
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>7274</v>
+        <v>7272</v>
       </c>
       <c r="B87" t="s">
-        <v>7275</v>
+        <v>7273</v>
       </c>
       <c r="C87" t="s">
         <v>5668</v>
@@ -70663,10 +70657,10 @@
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>7254</v>
+        <v>7252</v>
       </c>
       <c r="B88" t="s">
-        <v>7255</v>
+        <v>7253</v>
       </c>
       <c r="C88" t="s">
         <v>1671</v>
@@ -71268,10 +71262,10 @@
     </row>
     <row r="143" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
-        <v>7276</v>
+        <v>7274</v>
       </c>
       <c r="B143" t="s">
-        <v>7277</v>
+        <v>7275</v>
       </c>
       <c r="C143" t="s">
         <v>1863</v>
@@ -71323,10 +71317,10 @@
     </row>
     <row r="148" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
-        <v>7278</v>
+        <v>7276</v>
       </c>
       <c r="B148" t="s">
-        <v>7279</v>
+        <v>7277</v>
       </c>
       <c r="C148" t="s">
         <v>1863</v>
@@ -71334,10 +71328,10 @@
     </row>
     <row r="149" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
-        <v>7256</v>
+        <v>7254</v>
       </c>
       <c r="B149" t="s">
-        <v>7257</v>
+        <v>7255</v>
       </c>
       <c r="C149" t="s">
         <v>1687</v>
@@ -71345,10 +71339,10 @@
     </row>
     <row r="150" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
-        <v>7258</v>
+        <v>7256</v>
       </c>
       <c r="B150" t="s">
-        <v>7259</v>
+        <v>7257</v>
       </c>
       <c r="C150" t="s">
         <v>1687</v>
@@ -71356,10 +71350,10 @@
     </row>
     <row r="151" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
-        <v>7260</v>
+        <v>7258</v>
       </c>
       <c r="B151" t="s">
-        <v>7261</v>
+        <v>7259</v>
       </c>
       <c r="C151" t="s">
         <v>1687</v>
@@ -71367,10 +71361,10 @@
     </row>
     <row r="152" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
-        <v>7262</v>
+        <v>7260</v>
       </c>
       <c r="B152" t="s">
-        <v>7263</v>
+        <v>7261</v>
       </c>
       <c r="C152" t="s">
         <v>1687</v>
@@ -71378,10 +71372,10 @@
     </row>
     <row r="153" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
-        <v>7264</v>
+        <v>7262</v>
       </c>
       <c r="B153" t="s">
-        <v>7265</v>
+        <v>7263</v>
       </c>
       <c r="C153" t="s">
         <v>1687</v>
@@ -71400,10 +71394,10 @@
     </row>
     <row r="155" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
-        <v>7266</v>
+        <v>7264</v>
       </c>
       <c r="B155" t="s">
-        <v>7267</v>
+        <v>7265</v>
       </c>
       <c r="C155" t="s">
         <v>1687</v>
@@ -71422,10 +71416,10 @@
     </row>
     <row r="157" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
-        <v>7268</v>
+        <v>7266</v>
       </c>
       <c r="B157" t="s">
-        <v>7269</v>
+        <v>7267</v>
       </c>
       <c r="C157" t="s">
         <v>1687</v>
@@ -71444,10 +71438,10 @@
     </row>
     <row r="159" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
-        <v>7270</v>
+        <v>7268</v>
       </c>
       <c r="B159" t="s">
-        <v>7271</v>
+        <v>7269</v>
       </c>
       <c r="C159" t="s">
         <v>1687</v>
@@ -71455,10 +71449,10 @@
     </row>
     <row r="160" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
-        <v>7272</v>
+        <v>7270</v>
       </c>
       <c r="B160" t="s">
-        <v>7273</v>
+        <v>7271</v>
       </c>
       <c r="C160" t="s">
         <v>1687</v>
@@ -71741,10 +71735,10 @@
     </row>
     <row r="186" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
-        <v>7280</v>
+        <v>7278</v>
       </c>
       <c r="B186" t="s">
-        <v>7281</v>
+        <v>7279</v>
       </c>
       <c r="C186" t="s">
         <v>1964</v>
@@ -71752,10 +71746,10 @@
     </row>
     <row r="187" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
-        <v>7282</v>
+        <v>7280</v>
       </c>
       <c r="B187" t="s">
-        <v>7283</v>
+        <v>7281</v>
       </c>
       <c r="C187" t="s">
         <v>1964</v>
@@ -71796,10 +71790,10 @@
     </row>
     <row r="191" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
-        <v>7284</v>
+        <v>7282</v>
       </c>
       <c r="B191" t="s">
-        <v>7285</v>
+        <v>7283</v>
       </c>
       <c r="C191" t="s">
         <v>2049</v>
@@ -71807,10 +71801,10 @@
     </row>
     <row r="192" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
-        <v>7286</v>
+        <v>7284</v>
       </c>
       <c r="B192" t="s">
-        <v>7287</v>
+        <v>7285</v>
       </c>
       <c r="C192" t="s">
         <v>2049</v>
@@ -71851,10 +71845,10 @@
     </row>
     <row r="196" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
-        <v>7288</v>
+        <v>7286</v>
       </c>
       <c r="B196" t="s">
-        <v>7289</v>
+        <v>7287</v>
       </c>
       <c r="C196" t="s">
         <v>2049</v>
@@ -71873,10 +71867,10 @@
     </row>
     <row r="198" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
-        <v>7313</v>
+        <v>7311</v>
       </c>
       <c r="B198" t="s">
-        <v>7314</v>
+        <v>7312</v>
       </c>
       <c r="C198" t="s">
         <v>2244</v>
@@ -72737,26 +72731,26 @@
         <v>7245</v>
       </c>
       <c r="C276" t="s">
-        <v>1641</v>
+        <v>6915</v>
       </c>
     </row>
     <row r="277" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A277" t="s">
-        <v>7246</v>
+        <v>4907</v>
       </c>
       <c r="B277" t="s">
-        <v>7247</v>
+        <v>4908</v>
       </c>
       <c r="C277" t="s">
-        <v>6915</v>
+        <v>1581</v>
       </c>
     </row>
     <row r="278" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A278" t="s">
-        <v>4907</v>
+        <v>7234</v>
       </c>
       <c r="B278" t="s">
-        <v>4908</v>
+        <v>7235</v>
       </c>
       <c r="C278" t="s">
         <v>1581</v>
@@ -72764,13 +72758,13 @@
     </row>
     <row r="279" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A279" t="s">
-        <v>7234</v>
+        <v>7288</v>
       </c>
       <c r="B279" t="s">
-        <v>7235</v>
+        <v>7289</v>
       </c>
       <c r="C279" t="s">
-        <v>1581</v>
+        <v>2128</v>
       </c>
     </row>
     <row r="280" spans="1:3" x14ac:dyDescent="0.25">
@@ -72825,37 +72819,37 @@
         <v>7299</v>
       </c>
       <c r="C284" t="s">
-        <v>2128</v>
+        <v>7300</v>
       </c>
     </row>
     <row r="285" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A285" t="s">
+        <v>7301</v>
+      </c>
+      <c r="B285" t="s">
+        <v>7302</v>
+      </c>
+      <c r="C285" t="s">
         <v>7300</v>
-      </c>
-      <c r="B285" t="s">
-        <v>7301</v>
-      </c>
-      <c r="C285" t="s">
-        <v>7302</v>
       </c>
     </row>
     <row r="286" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A286" t="s">
-        <v>7303</v>
+        <v>7068</v>
       </c>
       <c r="B286" t="s">
-        <v>7304</v>
+        <v>7069</v>
       </c>
       <c r="C286" t="s">
-        <v>7302</v>
+        <v>331</v>
       </c>
     </row>
     <row r="287" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A287" t="s">
-        <v>7068</v>
+        <v>7070</v>
       </c>
       <c r="B287" t="s">
-        <v>7069</v>
+        <v>7071</v>
       </c>
       <c r="C287" t="s">
         <v>331</v>
@@ -72863,10 +72857,10 @@
     </row>
     <row r="288" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A288" t="s">
-        <v>7070</v>
+        <v>7072</v>
       </c>
       <c r="B288" t="s">
-        <v>7071</v>
+        <v>7073</v>
       </c>
       <c r="C288" t="s">
         <v>331</v>
@@ -72874,10 +72868,10 @@
     </row>
     <row r="289" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A289" t="s">
-        <v>7072</v>
+        <v>6705</v>
       </c>
       <c r="B289" t="s">
-        <v>7073</v>
+        <v>6706</v>
       </c>
       <c r="C289" t="s">
         <v>331</v>
@@ -72885,10 +72879,10 @@
     </row>
     <row r="290" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A290" t="s">
-        <v>6705</v>
+        <v>2516</v>
       </c>
       <c r="B290" t="s">
-        <v>6706</v>
+        <v>2517</v>
       </c>
       <c r="C290" t="s">
         <v>331</v>
@@ -72896,32 +72890,32 @@
     </row>
     <row r="291" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A291" t="s">
-        <v>2516</v>
+        <v>6520</v>
       </c>
       <c r="B291" t="s">
-        <v>2517</v>
+        <v>6521</v>
       </c>
       <c r="C291" t="s">
-        <v>331</v>
+        <v>6519</v>
       </c>
     </row>
     <row r="292" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A292" t="s">
-        <v>6520</v>
+        <v>2209</v>
       </c>
       <c r="B292" t="s">
-        <v>6521</v>
+        <v>2210</v>
       </c>
       <c r="C292" t="s">
-        <v>6519</v>
+        <v>2198</v>
       </c>
     </row>
     <row r="293" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A293" t="s">
-        <v>2209</v>
+        <v>7305</v>
       </c>
       <c r="B293" t="s">
-        <v>2210</v>
+        <v>7306</v>
       </c>
       <c r="C293" t="s">
         <v>2198</v>
@@ -72929,21 +72923,21 @@
     </row>
     <row r="294" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A294" t="s">
-        <v>7307</v>
+        <v>2628</v>
       </c>
       <c r="B294" t="s">
-        <v>7308</v>
+        <v>2629</v>
       </c>
       <c r="C294" t="s">
-        <v>2198</v>
+        <v>557</v>
       </c>
     </row>
     <row r="295" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A295" t="s">
-        <v>2628</v>
+        <v>7080</v>
       </c>
       <c r="B295" t="s">
-        <v>2629</v>
+        <v>7081</v>
       </c>
       <c r="C295" t="s">
         <v>557</v>
@@ -72951,10 +72945,10 @@
     </row>
     <row r="296" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A296" t="s">
-        <v>7080</v>
+        <v>7082</v>
       </c>
       <c r="B296" t="s">
-        <v>7081</v>
+        <v>7083</v>
       </c>
       <c r="C296" t="s">
         <v>557</v>
@@ -72962,10 +72956,10 @@
     </row>
     <row r="297" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A297" t="s">
-        <v>7082</v>
+        <v>7084</v>
       </c>
       <c r="B297" t="s">
-        <v>7083</v>
+        <v>7085</v>
       </c>
       <c r="C297" t="s">
         <v>557</v>
@@ -72973,10 +72967,10 @@
     </row>
     <row r="298" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A298" t="s">
-        <v>7084</v>
+        <v>7086</v>
       </c>
       <c r="B298" t="s">
-        <v>7085</v>
+        <v>7087</v>
       </c>
       <c r="C298" t="s">
         <v>557</v>
@@ -72984,21 +72978,21 @@
     </row>
     <row r="299" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A299" t="s">
-        <v>7086</v>
+        <v>7088</v>
       </c>
       <c r="B299" t="s">
-        <v>7087</v>
+        <v>7089</v>
       </c>
       <c r="C299" t="s">
-        <v>557</v>
+        <v>589</v>
       </c>
     </row>
     <row r="300" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A300" t="s">
-        <v>7088</v>
+        <v>7090</v>
       </c>
       <c r="B300" t="s">
-        <v>7089</v>
+        <v>7091</v>
       </c>
       <c r="C300" t="s">
         <v>589</v>
@@ -73006,10 +73000,10 @@
     </row>
     <row r="301" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A301" t="s">
-        <v>7090</v>
+        <v>4171</v>
       </c>
       <c r="B301" t="s">
-        <v>7091</v>
+        <v>4172</v>
       </c>
       <c r="C301" t="s">
         <v>589</v>
@@ -73017,10 +73011,10 @@
     </row>
     <row r="302" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A302" t="s">
-        <v>4171</v>
+        <v>6715</v>
       </c>
       <c r="B302" t="s">
-        <v>4172</v>
+        <v>6716</v>
       </c>
       <c r="C302" t="s">
         <v>589</v>
@@ -73028,10 +73022,10 @@
     </row>
     <row r="303" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A303" t="s">
-        <v>6715</v>
+        <v>2644</v>
       </c>
       <c r="B303" t="s">
-        <v>6716</v>
+        <v>2645</v>
       </c>
       <c r="C303" t="s">
         <v>589</v>
@@ -73039,10 +73033,10 @@
     </row>
     <row r="304" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A304" t="s">
-        <v>2644</v>
+        <v>2652</v>
       </c>
       <c r="B304" t="s">
-        <v>2645</v>
+        <v>2653</v>
       </c>
       <c r="C304" t="s">
         <v>589</v>
@@ -73050,10 +73044,10 @@
     </row>
     <row r="305" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A305" t="s">
-        <v>2652</v>
+        <v>2654</v>
       </c>
       <c r="B305" t="s">
-        <v>2653</v>
+        <v>2655</v>
       </c>
       <c r="C305" t="s">
         <v>589</v>
@@ -73061,65 +73055,65 @@
     </row>
     <row r="306" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A306" t="s">
-        <v>2654</v>
+        <v>7050</v>
       </c>
       <c r="B306" t="s">
-        <v>2655</v>
+        <v>7051</v>
       </c>
       <c r="C306" t="s">
-        <v>589</v>
+        <v>194</v>
       </c>
     </row>
     <row r="307" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A307" t="s">
-        <v>7050</v>
+        <v>2024</v>
       </c>
       <c r="B307" t="s">
-        <v>7051</v>
+        <v>2025</v>
       </c>
       <c r="C307" t="s">
-        <v>194</v>
+        <v>2015</v>
       </c>
     </row>
     <row r="308" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A308" t="s">
-        <v>2024</v>
+        <v>7303</v>
       </c>
       <c r="B308" t="s">
-        <v>2025</v>
+        <v>7304</v>
       </c>
       <c r="C308" t="s">
-        <v>2015</v>
+        <v>2143</v>
       </c>
     </row>
     <row r="309" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A309" t="s">
-        <v>7305</v>
+        <v>4431</v>
       </c>
       <c r="B309" t="s">
-        <v>7306</v>
+        <v>4432</v>
       </c>
       <c r="C309" t="s">
-        <v>2143</v>
+        <v>4433</v>
       </c>
     </row>
     <row r="310" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A310" t="s">
-        <v>4431</v>
+        <v>7307</v>
       </c>
       <c r="B310" t="s">
-        <v>4432</v>
+        <v>7308</v>
       </c>
       <c r="C310" t="s">
-        <v>4433</v>
+        <v>2236</v>
       </c>
     </row>
     <row r="311" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A311" t="s">
-        <v>7309</v>
+        <v>6499</v>
       </c>
       <c r="B311" t="s">
-        <v>7310</v>
+        <v>6500</v>
       </c>
       <c r="C311" t="s">
         <v>2236</v>
@@ -73127,10 +73121,10 @@
     </row>
     <row r="312" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A312" t="s">
-        <v>6499</v>
+        <v>2234</v>
       </c>
       <c r="B312" t="s">
-        <v>6500</v>
+        <v>2235</v>
       </c>
       <c r="C312" t="s">
         <v>2236</v>
@@ -73138,10 +73132,10 @@
     </row>
     <row r="313" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A313" t="s">
-        <v>2234</v>
+        <v>7309</v>
       </c>
       <c r="B313" t="s">
-        <v>2235</v>
+        <v>7310</v>
       </c>
       <c r="C313" t="s">
         <v>2236</v>
@@ -73149,10 +73143,10 @@
     </row>
     <row r="314" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A314" t="s">
-        <v>7311</v>
+        <v>6501</v>
       </c>
       <c r="B314" t="s">
-        <v>7312</v>
+        <v>6502</v>
       </c>
       <c r="C314" t="s">
         <v>2236</v>
@@ -73160,23 +73154,12 @@
     </row>
     <row r="315" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A315" t="s">
-        <v>6501</v>
+        <v>2237</v>
       </c>
       <c r="B315" t="s">
-        <v>6502</v>
+        <v>2238</v>
       </c>
       <c r="C315" t="s">
-        <v>2236</v>
-      </c>
-    </row>
-    <row r="316" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A316" t="s">
-        <v>2237</v>
-      </c>
-      <c r="B316" t="s">
-        <v>2238</v>
-      </c>
-      <c r="C316" t="s">
         <v>2236</v>
       </c>
     </row>
@@ -73219,10 +73202,10 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>7315</v>
+        <v>7313</v>
       </c>
       <c r="B3" t="s">
-        <v>7316</v>
+        <v>7314</v>
       </c>
       <c r="C3" t="s">
         <v>47</v>
@@ -73307,10 +73290,10 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>7317</v>
+        <v>7315</v>
       </c>
       <c r="B11" t="s">
-        <v>7318</v>
+        <v>7316</v>
       </c>
       <c r="C11" t="s">
         <v>47</v>
@@ -73351,10 +73334,10 @@
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>7319</v>
+        <v>7317</v>
       </c>
       <c r="B15" t="s">
-        <v>7320</v>
+        <v>7318</v>
       </c>
       <c r="C15" t="s">
         <v>47</v>
@@ -73373,10 +73356,10 @@
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>7321</v>
+        <v>7319</v>
       </c>
       <c r="B17" t="s">
-        <v>7322</v>
+        <v>7320</v>
       </c>
       <c r="C17" t="s">
         <v>47</v>
@@ -73494,10 +73477,10 @@
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>7337</v>
+        <v>7335</v>
       </c>
       <c r="B28" t="s">
-        <v>7338</v>
+        <v>7336</v>
       </c>
       <c r="C28" t="s">
         <v>995</v>
@@ -73516,10 +73499,10 @@
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>7339</v>
+        <v>7337</v>
       </c>
       <c r="B30" t="s">
-        <v>7340</v>
+        <v>7338</v>
       </c>
       <c r="C30" t="s">
         <v>995</v>
@@ -73527,10 +73510,10 @@
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>7341</v>
+        <v>7339</v>
       </c>
       <c r="B31" t="s">
-        <v>7342</v>
+        <v>7340</v>
       </c>
       <c r="C31" t="s">
         <v>995</v>
@@ -73648,10 +73631,10 @@
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>7363</v>
+        <v>7361</v>
       </c>
       <c r="B42" t="s">
-        <v>7364</v>
+        <v>7362</v>
       </c>
       <c r="C42" t="s">
         <v>1593</v>
@@ -73659,10 +73642,10 @@
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>7323</v>
+        <v>7321</v>
       </c>
       <c r="B43" t="s">
-        <v>7324</v>
+        <v>7322</v>
       </c>
       <c r="C43" t="s">
         <v>245</v>
@@ -73670,10 +73653,10 @@
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>7325</v>
+        <v>7323</v>
       </c>
       <c r="B44" t="s">
-        <v>7326</v>
+        <v>7324</v>
       </c>
       <c r="C44" t="s">
         <v>245</v>
@@ -73681,10 +73664,10 @@
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>7365</v>
+        <v>7363</v>
       </c>
       <c r="B45" t="s">
-        <v>7366</v>
+        <v>7364</v>
       </c>
       <c r="C45" t="s">
         <v>1687</v>
@@ -73692,10 +73675,10 @@
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>7367</v>
+        <v>7365</v>
       </c>
       <c r="B46" t="s">
-        <v>7368</v>
+        <v>7366</v>
       </c>
       <c r="C46" t="s">
         <v>1687</v>
@@ -73703,10 +73686,10 @@
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>7369</v>
+        <v>7367</v>
       </c>
       <c r="B47" t="s">
-        <v>7370</v>
+        <v>7368</v>
       </c>
       <c r="C47" t="s">
         <v>1687</v>
@@ -73714,10 +73697,10 @@
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>7371</v>
+        <v>7369</v>
       </c>
       <c r="B48" t="s">
-        <v>7372</v>
+        <v>7370</v>
       </c>
       <c r="C48" t="s">
         <v>1687</v>
@@ -73824,10 +73807,10 @@
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>7327</v>
+        <v>7325</v>
       </c>
       <c r="B58" t="s">
-        <v>7328</v>
+        <v>7326</v>
       </c>
       <c r="C58" t="s">
         <v>413</v>
@@ -73835,10 +73818,10 @@
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>7373</v>
+        <v>7371</v>
       </c>
       <c r="B59" t="s">
-        <v>7374</v>
+        <v>7372</v>
       </c>
       <c r="C59" t="s">
         <v>2049</v>
@@ -73846,10 +73829,10 @@
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>7375</v>
+        <v>7373</v>
       </c>
       <c r="B60" t="s">
-        <v>7376</v>
+        <v>7374</v>
       </c>
       <c r="C60" t="s">
         <v>2049</v>
@@ -73857,10 +73840,10 @@
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>7377</v>
+        <v>7375</v>
       </c>
       <c r="B61" t="s">
-        <v>7378</v>
+        <v>7376</v>
       </c>
       <c r="C61" t="s">
         <v>2049</v>
@@ -73868,10 +73851,10 @@
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>7379</v>
+        <v>7377</v>
       </c>
       <c r="B62" t="s">
-        <v>7380</v>
+        <v>7378</v>
       </c>
       <c r="C62" t="s">
         <v>2049</v>
@@ -73879,10 +73862,10 @@
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>7381</v>
+        <v>7379</v>
       </c>
       <c r="B63" t="s">
-        <v>7382</v>
+        <v>7380</v>
       </c>
       <c r="C63" t="s">
         <v>2049</v>
@@ -73890,10 +73873,10 @@
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>7383</v>
+        <v>7381</v>
       </c>
       <c r="B64" t="s">
-        <v>7384</v>
+        <v>7382</v>
       </c>
       <c r="C64" t="s">
         <v>2049</v>
@@ -73901,10 +73884,10 @@
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>7385</v>
+        <v>7383</v>
       </c>
       <c r="B65" t="s">
-        <v>7386</v>
+        <v>7384</v>
       </c>
       <c r="C65" t="s">
         <v>2049</v>
@@ -73912,10 +73895,10 @@
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>7387</v>
+        <v>7385</v>
       </c>
       <c r="B66" t="s">
-        <v>7388</v>
+        <v>7386</v>
       </c>
       <c r="C66" t="s">
         <v>2049</v>
@@ -73923,10 +73906,10 @@
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>7389</v>
+        <v>7387</v>
       </c>
       <c r="B67" t="s">
-        <v>7390</v>
+        <v>7388</v>
       </c>
       <c r="C67" t="s">
         <v>2049</v>
@@ -73934,10 +73917,10 @@
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>7391</v>
+        <v>7389</v>
       </c>
       <c r="B68" t="s">
-        <v>7392</v>
+        <v>7390</v>
       </c>
       <c r="C68" t="s">
         <v>2049</v>
@@ -73945,10 +73928,10 @@
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>7393</v>
+        <v>7391</v>
       </c>
       <c r="B69" t="s">
-        <v>7394</v>
+        <v>7392</v>
       </c>
       <c r="C69" t="s">
         <v>2049</v>
@@ -73956,10 +73939,10 @@
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>7329</v>
+        <v>7327</v>
       </c>
       <c r="B70" t="s">
-        <v>7330</v>
+        <v>7328</v>
       </c>
       <c r="C70" t="s">
         <v>855</v>
@@ -73967,10 +73950,10 @@
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>7331</v>
+        <v>7329</v>
       </c>
       <c r="B71" t="s">
-        <v>7332</v>
+        <v>7330</v>
       </c>
       <c r="C71" t="s">
         <v>855</v>
@@ -73978,10 +73961,10 @@
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>7333</v>
+        <v>7331</v>
       </c>
       <c r="B72" t="s">
-        <v>7334</v>
+        <v>7332</v>
       </c>
       <c r="C72" t="s">
         <v>855</v>
@@ -73989,10 +73972,10 @@
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>7335</v>
+        <v>7333</v>
       </c>
       <c r="B73" t="s">
-        <v>7336</v>
+        <v>7334</v>
       </c>
       <c r="C73" t="s">
         <v>855</v>
@@ -74110,10 +74093,10 @@
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>7343</v>
+        <v>7341</v>
       </c>
       <c r="B84" t="s">
-        <v>7344</v>
+        <v>7342</v>
       </c>
       <c r="C84" t="s">
         <v>1258</v>
@@ -74187,10 +74170,10 @@
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>7345</v>
+        <v>7343</v>
       </c>
       <c r="B91" t="s">
-        <v>7346</v>
+        <v>7344</v>
       </c>
       <c r="C91" t="s">
         <v>1258</v>
@@ -74253,10 +74236,10 @@
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>7347</v>
+        <v>7345</v>
       </c>
       <c r="B97" t="s">
-        <v>7348</v>
+        <v>7346</v>
       </c>
       <c r="C97" t="s">
         <v>1258</v>
@@ -74264,10 +74247,10 @@
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>7349</v>
+        <v>7347</v>
       </c>
       <c r="B98" t="s">
-        <v>7350</v>
+        <v>7348</v>
       </c>
       <c r="C98" t="s">
         <v>1258</v>
@@ -74275,10 +74258,10 @@
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>7351</v>
+        <v>7349</v>
       </c>
       <c r="B99" t="s">
-        <v>7352</v>
+        <v>7350</v>
       </c>
       <c r="C99" t="s">
         <v>1258</v>
@@ -74286,10 +74269,10 @@
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>7353</v>
+        <v>7351</v>
       </c>
       <c r="B100" t="s">
-        <v>7354</v>
+        <v>7352</v>
       </c>
       <c r="C100" t="s">
         <v>1258</v>
@@ -74352,10 +74335,10 @@
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>7355</v>
+        <v>7353</v>
       </c>
       <c r="B106" t="s">
-        <v>7356</v>
+        <v>7354</v>
       </c>
       <c r="C106" t="s">
         <v>1258</v>
@@ -74374,10 +74357,10 @@
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>7357</v>
+        <v>7355</v>
       </c>
       <c r="B108" t="s">
-        <v>7358</v>
+        <v>7356</v>
       </c>
       <c r="C108" t="s">
         <v>1258</v>
@@ -74396,10 +74379,10 @@
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>7359</v>
+        <v>7357</v>
       </c>
       <c r="B110" t="s">
-        <v>7360</v>
+        <v>7358</v>
       </c>
       <c r="C110" t="s">
         <v>1258</v>
@@ -74407,10 +74390,10 @@
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>7361</v>
+        <v>7359</v>
       </c>
       <c r="B111" t="s">
-        <v>7362</v>
+        <v>7360</v>
       </c>
       <c r="C111" t="s">
         <v>1258</v>
@@ -74539,10 +74522,10 @@
     </row>
     <row r="123" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
-        <v>7305</v>
+        <v>7303</v>
       </c>
       <c r="B123" t="s">
-        <v>7306</v>
+        <v>7304</v>
       </c>
       <c r="C123" t="s">
         <v>2143</v>
@@ -74550,10 +74533,10 @@
     </row>
     <row r="124" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
-        <v>7395</v>
+        <v>7393</v>
       </c>
       <c r="B124" t="s">
-        <v>7396</v>
+        <v>7394</v>
       </c>
       <c r="C124" t="s">
         <v>2143</v>
@@ -74598,10 +74581,10 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>7401</v>
+        <v>7399</v>
       </c>
       <c r="B2" t="s">
-        <v>7402</v>
+        <v>7400</v>
       </c>
       <c r="C2" t="s">
         <v>18</v>
@@ -74620,10 +74603,10 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>7405</v>
+        <v>7403</v>
       </c>
       <c r="B4" t="s">
-        <v>7406</v>
+        <v>7404</v>
       </c>
       <c r="C4" t="s">
         <v>47</v>
@@ -74631,10 +74614,10 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>7407</v>
+        <v>7405</v>
       </c>
       <c r="B5" t="s">
-        <v>7408</v>
+        <v>7406</v>
       </c>
       <c r="C5" t="s">
         <v>47</v>
@@ -74642,10 +74625,10 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>7409</v>
+        <v>7407</v>
       </c>
       <c r="B6" t="s">
-        <v>7410</v>
+        <v>7408</v>
       </c>
       <c r="C6" t="s">
         <v>47</v>
@@ -74653,10 +74636,10 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>7411</v>
+        <v>7409</v>
       </c>
       <c r="B7" t="s">
-        <v>7412</v>
+        <v>7410</v>
       </c>
       <c r="C7" t="s">
         <v>47</v>
@@ -74664,10 +74647,10 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>7413</v>
+        <v>7411</v>
       </c>
       <c r="B8" t="s">
-        <v>7414</v>
+        <v>7412</v>
       </c>
       <c r="C8" t="s">
         <v>47</v>
@@ -74708,10 +74691,10 @@
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>7429</v>
+        <v>7427</v>
       </c>
       <c r="B12" t="s">
-        <v>7430</v>
+        <v>7428</v>
       </c>
       <c r="C12" t="s">
         <v>2737</v>
@@ -74719,10 +74702,10 @@
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>7431</v>
+        <v>7429</v>
       </c>
       <c r="B13" t="s">
-        <v>7432</v>
+        <v>7430</v>
       </c>
       <c r="C13" t="s">
         <v>995</v>
@@ -74730,10 +74713,10 @@
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>7433</v>
+        <v>7431</v>
       </c>
       <c r="B14" t="s">
-        <v>7434</v>
+        <v>7432</v>
       </c>
       <c r="C14" t="s">
         <v>995</v>
@@ -74741,10 +74724,10 @@
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>7435</v>
+        <v>7433</v>
       </c>
       <c r="B15" t="s">
-        <v>7436</v>
+        <v>7434</v>
       </c>
       <c r="C15" t="s">
         <v>995</v>
@@ -74752,10 +74735,10 @@
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>7339</v>
+        <v>7337</v>
       </c>
       <c r="B16" t="s">
-        <v>7340</v>
+        <v>7338</v>
       </c>
       <c r="C16" t="s">
         <v>995</v>
@@ -74763,10 +74746,10 @@
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>7437</v>
+        <v>7435</v>
       </c>
       <c r="B17" t="s">
-        <v>7438</v>
+        <v>7436</v>
       </c>
       <c r="C17" t="s">
         <v>995</v>
@@ -74774,10 +74757,10 @@
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>7439</v>
+        <v>7437</v>
       </c>
       <c r="B18" t="s">
-        <v>7440</v>
+        <v>7438</v>
       </c>
       <c r="C18" t="s">
         <v>995</v>
@@ -74785,10 +74768,10 @@
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>7341</v>
+        <v>7339</v>
       </c>
       <c r="B19" t="s">
-        <v>7342</v>
+        <v>7340</v>
       </c>
       <c r="C19" t="s">
         <v>995</v>
@@ -74818,10 +74801,10 @@
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>7441</v>
+        <v>7439</v>
       </c>
       <c r="B22" t="s">
-        <v>7442</v>
+        <v>7440</v>
       </c>
       <c r="C22" t="s">
         <v>995</v>
@@ -74829,10 +74812,10 @@
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>7443</v>
+        <v>7441</v>
       </c>
       <c r="B23" t="s">
-        <v>7444</v>
+        <v>7442</v>
       </c>
       <c r="C23" t="s">
         <v>995</v>
@@ -74840,10 +74823,10 @@
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>7445</v>
+        <v>7443</v>
       </c>
       <c r="B24" t="s">
-        <v>7446</v>
+        <v>7444</v>
       </c>
       <c r="C24" t="s">
         <v>995</v>
@@ -74851,10 +74834,10 @@
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>7447</v>
+        <v>7445</v>
       </c>
       <c r="B25" t="s">
-        <v>7448</v>
+        <v>7446</v>
       </c>
       <c r="C25" t="s">
         <v>995</v>
@@ -74873,10 +74856,10 @@
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>7449</v>
+        <v>7447</v>
       </c>
       <c r="B27" t="s">
-        <v>7450</v>
+        <v>7448</v>
       </c>
       <c r="C27" t="s">
         <v>995</v>
@@ -74884,10 +74867,10 @@
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>7415</v>
+        <v>7413</v>
       </c>
       <c r="B28" t="s">
-        <v>7416</v>
+        <v>7414</v>
       </c>
       <c r="C28" t="s">
         <v>245</v>
@@ -74928,21 +74911,21 @@
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
+        <v>7477</v>
+      </c>
+      <c r="B32" t="s">
+        <v>7478</v>
+      </c>
+      <c r="C32" t="s">
         <v>7479</v>
-      </c>
-      <c r="B32" t="s">
-        <v>7480</v>
-      </c>
-      <c r="C32" t="s">
-        <v>7481</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>7397</v>
+        <v>7395</v>
       </c>
       <c r="B33" t="s">
-        <v>7398</v>
+        <v>7396</v>
       </c>
       <c r="C33" t="s">
         <v>2326</v>
@@ -74950,10 +74933,10 @@
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>7399</v>
+        <v>7397</v>
       </c>
       <c r="B34" t="s">
-        <v>7400</v>
+        <v>7398</v>
       </c>
       <c r="C34" t="s">
         <v>2326</v>
@@ -74961,10 +74944,10 @@
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>7451</v>
+        <v>7449</v>
       </c>
       <c r="B35" t="s">
-        <v>7452</v>
+        <v>7450</v>
       </c>
       <c r="C35" t="s">
         <v>1251</v>
@@ -74972,10 +74955,10 @@
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>7389</v>
+        <v>7387</v>
       </c>
       <c r="B36" t="s">
-        <v>7390</v>
+        <v>7388</v>
       </c>
       <c r="C36" t="s">
         <v>2049</v>
@@ -74983,10 +74966,10 @@
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>7423</v>
+        <v>7421</v>
       </c>
       <c r="B37" t="s">
-        <v>7424</v>
+        <v>7422</v>
       </c>
       <c r="C37" t="s">
         <v>855</v>
@@ -74994,10 +74977,10 @@
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>7425</v>
+        <v>7423</v>
       </c>
       <c r="B38" t="s">
-        <v>7426</v>
+        <v>7424</v>
       </c>
       <c r="C38" t="s">
         <v>855</v>
@@ -75005,10 +74988,10 @@
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>7427</v>
+        <v>7425</v>
       </c>
       <c r="B39" t="s">
-        <v>7428</v>
+        <v>7426</v>
       </c>
       <c r="C39" t="s">
         <v>855</v>
@@ -75016,10 +74999,10 @@
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>7403</v>
+        <v>7401</v>
       </c>
       <c r="B40" t="s">
-        <v>7404</v>
+        <v>7402</v>
       </c>
       <c r="C40" t="s">
         <v>3327</v>
@@ -75038,10 +75021,10 @@
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>7419</v>
+        <v>7417</v>
       </c>
       <c r="B42" t="s">
-        <v>7420</v>
+        <v>7418</v>
       </c>
       <c r="C42" t="s">
         <v>554</v>
@@ -75060,10 +75043,10 @@
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>7453</v>
+        <v>7451</v>
       </c>
       <c r="B44" t="s">
-        <v>7454</v>
+        <v>7452</v>
       </c>
       <c r="C44" t="s">
         <v>1258</v>
@@ -75104,10 +75087,10 @@
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>7455</v>
+        <v>7453</v>
       </c>
       <c r="B48" t="s">
-        <v>7456</v>
+        <v>7454</v>
       </c>
       <c r="C48" t="s">
         <v>1258</v>
@@ -75115,10 +75098,10 @@
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>7457</v>
+        <v>7455</v>
       </c>
       <c r="B49" t="s">
-        <v>7458</v>
+        <v>7456</v>
       </c>
       <c r="C49" t="s">
         <v>1258</v>
@@ -75192,10 +75175,10 @@
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>7459</v>
+        <v>7457</v>
       </c>
       <c r="B56" t="s">
-        <v>7460</v>
+        <v>7458</v>
       </c>
       <c r="C56" t="s">
         <v>1258</v>
@@ -75203,10 +75186,10 @@
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>7461</v>
+        <v>7459</v>
       </c>
       <c r="B57" t="s">
-        <v>7462</v>
+        <v>7460</v>
       </c>
       <c r="C57" t="s">
         <v>1258</v>
@@ -75214,10 +75197,10 @@
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>7463</v>
+        <v>7461</v>
       </c>
       <c r="B58" t="s">
-        <v>7464</v>
+        <v>7462</v>
       </c>
       <c r="C58" t="s">
         <v>1258</v>
@@ -75247,10 +75230,10 @@
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>7465</v>
+        <v>7463</v>
       </c>
       <c r="B61" t="s">
-        <v>7466</v>
+        <v>7464</v>
       </c>
       <c r="C61" t="s">
         <v>1258</v>
@@ -75258,10 +75241,10 @@
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>7467</v>
+        <v>7465</v>
       </c>
       <c r="B62" t="s">
-        <v>7468</v>
+        <v>7466</v>
       </c>
       <c r="C62" t="s">
         <v>1258</v>
@@ -75269,10 +75252,10 @@
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>7469</v>
+        <v>7467</v>
       </c>
       <c r="B63" t="s">
-        <v>7470</v>
+        <v>7468</v>
       </c>
       <c r="C63" t="s">
         <v>1258</v>
@@ -75280,10 +75263,10 @@
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>7361</v>
+        <v>7359</v>
       </c>
       <c r="B64" t="s">
-        <v>7362</v>
+        <v>7360</v>
       </c>
       <c r="C64" t="s">
         <v>1258</v>
@@ -75291,10 +75274,10 @@
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>7471</v>
+        <v>7469</v>
       </c>
       <c r="B65" t="s">
-        <v>7472</v>
+        <v>7470</v>
       </c>
       <c r="C65" t="s">
         <v>1258</v>
@@ -75302,10 +75285,10 @@
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>7473</v>
+        <v>7471</v>
       </c>
       <c r="B66" t="s">
-        <v>7474</v>
+        <v>7472</v>
       </c>
       <c r="C66" t="s">
         <v>1258</v>
@@ -75313,10 +75296,10 @@
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>7482</v>
+        <v>7480</v>
       </c>
       <c r="B67" t="s">
-        <v>7483</v>
+        <v>7481</v>
       </c>
       <c r="C67" t="s">
         <v>2297</v>
@@ -75324,10 +75307,10 @@
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>7484</v>
+        <v>7482</v>
       </c>
       <c r="B68" t="s">
-        <v>7485</v>
+        <v>7483</v>
       </c>
       <c r="C68" t="s">
         <v>2297</v>
@@ -75390,10 +75373,10 @@
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>7477</v>
+        <v>7475</v>
       </c>
       <c r="B74" t="s">
-        <v>7478</v>
+        <v>7476</v>
       </c>
       <c r="C74" t="s">
         <v>1641</v>
@@ -75401,10 +75384,10 @@
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>7475</v>
+        <v>7473</v>
       </c>
       <c r="B75" t="s">
-        <v>7476</v>
+        <v>7474</v>
       </c>
       <c r="C75" t="s">
         <v>1581</v>
@@ -75412,10 +75395,10 @@
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>7417</v>
+        <v>7415</v>
       </c>
       <c r="B76" t="s">
-        <v>7418</v>
+        <v>7416</v>
       </c>
       <c r="C76" t="s">
         <v>331</v>
@@ -75423,10 +75406,10 @@
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>7421</v>
+        <v>7419</v>
       </c>
       <c r="B77" t="s">
-        <v>7422</v>
+        <v>7420</v>
       </c>
       <c r="C77" t="s">
         <v>557</v>
@@ -75460,10 +75443,10 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>7319</v>
+        <v>7317</v>
       </c>
       <c r="B2" t="s">
-        <v>7320</v>
+        <v>7318</v>
       </c>
       <c r="C2" t="s">
         <v>47</v>
@@ -75614,10 +75597,10 @@
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>7343</v>
+        <v>7341</v>
       </c>
       <c r="B16" t="s">
-        <v>7344</v>
+        <v>7342</v>
       </c>
       <c r="C16" t="s">
         <v>1258</v>
@@ -75680,10 +75663,10 @@
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>7347</v>
+        <v>7345</v>
       </c>
       <c r="B22" t="s">
-        <v>7348</v>
+        <v>7346</v>
       </c>
       <c r="C22" t="s">
         <v>1258</v>
